--- a/data/Morta_Homme_France.xlsx
+++ b/data/Morta_Homme_France.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>px.x</t>
+          <t>px</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,42 +395,77 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>px.y</t>
+          <t>ix</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ix</t>
+          <t>n</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ax</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ax</t>
+          <t>lx</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>lx</t>
+          <t>Lx</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Lx</t>
+          <t>Tx</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Tx</t>
+          <t>ex</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ex</t>
+          <t>ILx</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>DLx</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>DFLx</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DTx</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>DFTx</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>DFLEx</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>DLEx</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>DFLE_pct</t>
         </is>
       </c>
     </row>
@@ -459,28 +494,49 @@
         <v>0.00976</v>
       </c>
       <c r="H2">
-        <v>0.99024</v>
+        <v>0.01252108024394617</v>
       </c>
       <c r="I2">
-        <v>0.01252108024394617</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>0.5</v>
+        <v>100000</v>
       </c>
       <c r="L2">
-        <v>100000</v>
+        <v>99512</v>
       </c>
       <c r="M2">
-        <v>99512</v>
+        <v>2346510.92484972</v>
       </c>
       <c r="N2">
-        <v>2346510.92484972</v>
+        <v>23.4651092484972</v>
       </c>
       <c r="O2">
-        <v>23.4651092484972</v>
+        <v>1245.997737235571</v>
+      </c>
+      <c r="P2">
+        <v>25515.51787688227</v>
+      </c>
+      <c r="Q2">
+        <v>73996.48212311773</v>
+      </c>
+      <c r="R2">
+        <v>877229.4380080574</v>
+      </c>
+      <c r="S2">
+        <v>1469281.486841663</v>
+      </c>
+      <c r="T2">
+        <v>14.69281486841663</v>
+      </c>
+      <c r="U2">
+        <v>8.772294380080574</v>
+      </c>
+      <c r="V2">
+        <v>62.6</v>
       </c>
     </row>
     <row r="3">
@@ -508,28 +564,49 @@
         <v>0.01055</v>
       </c>
       <c r="H3">
-        <v>0.9894500000000001</v>
+        <v>0.01252108024394617</v>
       </c>
       <c r="I3">
-        <v>0.01252108024394617</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>99024</v>
       </c>
       <c r="L3">
-        <v>99024</v>
+        <v>98501.64840000001</v>
       </c>
       <c r="M3">
-        <v>98501.64840000001</v>
+        <v>2246998.92484972</v>
       </c>
       <c r="N3">
-        <v>2246998.92484972</v>
+        <v>22.69145787738044</v>
       </c>
       <c r="O3">
-        <v>22.69145787738044</v>
+        <v>1233.347043777372</v>
+      </c>
+      <c r="P3">
+        <v>24044.34575832393</v>
+      </c>
+      <c r="Q3">
+        <v>74457.30264167608</v>
+      </c>
+      <c r="R3">
+        <v>851713.9201311752</v>
+      </c>
+      <c r="S3">
+        <v>1395285.004718545</v>
+      </c>
+      <c r="T3">
+        <v>14.0903720786733</v>
+      </c>
+      <c r="U3">
+        <v>8.601085798707134</v>
+      </c>
+      <c r="V3">
+        <v>62.1</v>
       </c>
     </row>
     <row r="4">
@@ -557,28 +634,49 @@
         <v>0.01143</v>
       </c>
       <c r="H4">
-        <v>0.9885699999999999</v>
+        <v>0.01252108024394617</v>
       </c>
       <c r="I4">
-        <v>0.01252108024394617</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>97979.2968</v>
       </c>
       <c r="L4">
-        <v>97979.2968</v>
+        <v>97419.345118788</v>
       </c>
       <c r="M4">
-        <v>97419.345118788</v>
+        <v>2148497.27644972</v>
       </c>
       <c r="N4">
-        <v>2148497.27644972</v>
+        <v>21.92807405869972</v>
       </c>
       <c r="O4">
-        <v>21.92807405869972</v>
+        <v>1219.79543754503</v>
+      </c>
+      <c r="P4">
+        <v>23180.01858580113</v>
+      </c>
+      <c r="Q4">
+        <v>74239.32653298686</v>
+      </c>
+      <c r="R4">
+        <v>827669.5743728513</v>
+      </c>
+      <c r="S4">
+        <v>1320827.702076869</v>
+      </c>
+      <c r="T4">
+        <v>13.48068158493733</v>
+      </c>
+      <c r="U4">
+        <v>8.447392473762388</v>
+      </c>
+      <c r="V4">
+        <v>61.5</v>
       </c>
     </row>
     <row r="5">
@@ -606,28 +704,49 @@
         <v>0.01188</v>
       </c>
       <c r="H5">
-        <v>0.98812</v>
+        <v>0.01252108024394617</v>
       </c>
       <c r="I5">
-        <v>0.01252108024394617</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.5</v>
+        <v>96859.393437576</v>
       </c>
       <c r="L5">
-        <v>96859.393437576</v>
+        <v>96284.04864055681</v>
       </c>
       <c r="M5">
-        <v>96284.04864055681</v>
+        <v>2051077.931330932</v>
       </c>
       <c r="N5">
-        <v>2051077.931330932</v>
+        <v>21.17582878167426</v>
       </c>
       <c r="O5">
-        <v>21.17582878167426</v>
+        <v>1205.580299240428</v>
+      </c>
+      <c r="P5">
+        <v>23164.88908830547</v>
+      </c>
+      <c r="Q5">
+        <v>73119.15955225134</v>
+      </c>
+      <c r="R5">
+        <v>804489.5557870502</v>
+      </c>
+      <c r="S5">
+        <v>1246588.375543882</v>
+      </c>
+      <c r="T5">
+        <v>12.87008240813819</v>
+      </c>
+      <c r="U5">
+        <v>8.305746373536069</v>
+      </c>
+      <c r="V5">
+        <v>60.8</v>
       </c>
     </row>
     <row r="6">
@@ -655,28 +774,49 @@
         <v>0.01264</v>
       </c>
       <c r="H6">
-        <v>0.98736</v>
+        <v>0.01252108024394617</v>
       </c>
       <c r="I6">
-        <v>0.01252108024394617</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.5</v>
+        <v>95708.7038435376</v>
       </c>
       <c r="L6">
-        <v>95708.7038435376</v>
+        <v>95103.82483524644</v>
       </c>
       <c r="M6">
-        <v>95103.82483524644</v>
+        <v>1954793.882690375</v>
       </c>
       <c r="N6">
-        <v>1954793.882690375</v>
+        <v>20.42441078176158</v>
       </c>
       <c r="O6">
-        <v>20.42441078176158</v>
+        <v>1190.802622268321</v>
+      </c>
+      <c r="P6">
+        <v>22899.60908606588</v>
+      </c>
+      <c r="Q6">
+        <v>72204.21574918057</v>
+      </c>
+      <c r="R6">
+        <v>781324.6666987446</v>
+      </c>
+      <c r="S6">
+        <v>1173469.215991631</v>
+      </c>
+      <c r="T6">
+        <v>12.26084116560592</v>
+      </c>
+      <c r="U6">
+        <v>8.163569616155666</v>
+      </c>
+      <c r="V6">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -704,28 +844,49 @@
         <v>0.01311</v>
       </c>
       <c r="H7">
-        <v>0.98689</v>
+        <v>0.01490818267700232</v>
       </c>
       <c r="I7">
-        <v>0.01490818267700232</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>94498.94582695529</v>
       </c>
       <c r="L7">
-        <v>94498.94582695529</v>
+        <v>93879.50523705959</v>
       </c>
       <c r="M7">
-        <v>93879.50523705959</v>
+        <v>1859690.057855129</v>
       </c>
       <c r="N7">
-        <v>1859690.057855129</v>
+        <v>19.67947940139522</v>
       </c>
       <c r="O7">
-        <v>19.67947940139522</v>
+        <v>1399.57281370068</v>
+      </c>
+      <c r="P7">
+        <v>23570.63705705269</v>
+      </c>
+      <c r="Q7">
+        <v>70308.8681800069</v>
+      </c>
+      <c r="R7">
+        <v>758425.0576126787</v>
+      </c>
+      <c r="S7">
+        <v>1101265.00024245</v>
+      </c>
+      <c r="T7">
+        <v>11.65372788664824</v>
+      </c>
+      <c r="U7">
+        <v>8.025751514746975</v>
+      </c>
+      <c r="V7">
+        <v>59.2</v>
       </c>
     </row>
     <row r="8">
@@ -753,28 +914,49 @@
         <v>0.01408</v>
       </c>
       <c r="H8">
-        <v>0.98592</v>
+        <v>0.01490818267700232</v>
       </c>
       <c r="I8">
-        <v>0.01490818267700232</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>93260.0646471639</v>
       </c>
       <c r="L8">
-        <v>93260.0646471639</v>
+        <v>92603.51379204787</v>
       </c>
       <c r="M8">
-        <v>92603.51379204787</v>
+        <v>1765810.55261807</v>
       </c>
       <c r="N8">
-        <v>1765810.55261807</v>
+        <v>18.93426258386975</v>
       </c>
       <c r="O8">
-        <v>18.93426258386975</v>
+        <v>1380.550100144153</v>
+      </c>
+      <c r="P8">
+        <v>22219.0293797256</v>
+      </c>
+      <c r="Q8">
+        <v>70384.48441232227</v>
+      </c>
+      <c r="R8">
+        <v>734854.420555626</v>
+      </c>
+      <c r="S8">
+        <v>1030956.132062443</v>
+      </c>
+      <c r="T8">
+        <v>11.05463668680606</v>
+      </c>
+      <c r="U8">
+        <v>7.879625897063684</v>
+      </c>
+      <c r="V8">
+        <v>58.4</v>
       </c>
     </row>
     <row r="9">
@@ -802,28 +984,49 @@
         <v>0.01495</v>
       </c>
       <c r="H9">
-        <v>0.98505</v>
+        <v>0.01490818267700232</v>
       </c>
       <c r="I9">
-        <v>0.01490818267700232</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>91946.96293693184</v>
       </c>
       <c r="L9">
-        <v>91946.96293693184</v>
+        <v>91259.65938897827</v>
       </c>
       <c r="M9">
-        <v>91259.65938897827</v>
+        <v>1673207.038826022</v>
       </c>
       <c r="N9">
-        <v>1673207.038826022</v>
+        <v>18.1975237178166</v>
       </c>
       <c r="O9">
-        <v>18.1975237178166</v>
+        <v>1360.515673211898</v>
+      </c>
+      <c r="P9">
+        <v>23860.87784420931</v>
+      </c>
+      <c r="Q9">
+        <v>67398.78154476895</v>
+      </c>
+      <c r="R9">
+        <v>712635.3911759005</v>
+      </c>
+      <c r="S9">
+        <v>960571.6476501211</v>
+      </c>
+      <c r="T9">
+        <v>10.44701877003806</v>
+      </c>
+      <c r="U9">
+        <v>7.750504947778542</v>
+      </c>
+      <c r="V9">
+        <v>57.4</v>
       </c>
     </row>
     <row r="10">
@@ -851,28 +1054,49 @@
         <v>0.01627</v>
       </c>
       <c r="H10">
-        <v>0.98373</v>
+        <v>0.01490818267700232</v>
       </c>
       <c r="I10">
-        <v>0.01490818267700232</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>90572.35584102471</v>
       </c>
       <c r="L10">
-        <v>90572.35584102471</v>
+        <v>89835.54972625797</v>
       </c>
       <c r="M10">
-        <v>89835.54972625797</v>
+        <v>1581947.379437043</v>
       </c>
       <c r="N10">
-        <v>1581947.379437043</v>
+        <v>17.46611716950064</v>
       </c>
       <c r="O10">
-        <v>17.46611716950064</v>
+        <v>1339.284786207979</v>
+      </c>
+      <c r="P10">
+        <v>24684.63908651433</v>
+      </c>
+      <c r="Q10">
+        <v>65150.91063974364</v>
+      </c>
+      <c r="R10">
+        <v>688774.5133316912</v>
+      </c>
+      <c r="S10">
+        <v>893172.8661053522</v>
+      </c>
+      <c r="T10">
+        <v>9.861429106173144</v>
+      </c>
+      <c r="U10">
+        <v>7.604688063327497</v>
+      </c>
+      <c r="V10">
+        <v>56.5</v>
       </c>
     </row>
     <row r="11">
@@ -900,28 +1124,49 @@
         <v>0.01766</v>
       </c>
       <c r="H11">
-        <v>0.98234</v>
+        <v>0.01490818267700232</v>
       </c>
       <c r="I11">
-        <v>0.01490818267700232</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>89098.74361149123</v>
       </c>
       <c r="L11">
-        <v>89098.74361149123</v>
+        <v>88312.00170540175</v>
       </c>
       <c r="M11">
-        <v>88312.00170540175</v>
+        <v>1492111.829710785</v>
       </c>
       <c r="N11">
-        <v>1492111.829710785</v>
+        <v>16.74672132546597</v>
       </c>
       <c r="O11">
-        <v>16.74672132546597</v>
+        <v>1316.571453995869</v>
+      </c>
+      <c r="P11">
+        <v>26906.93987965127</v>
+      </c>
+      <c r="Q11">
+        <v>61405.06182575048</v>
+      </c>
+      <c r="R11">
+        <v>664089.8742451768</v>
+      </c>
+      <c r="S11">
+        <v>828021.9554656085</v>
+      </c>
+      <c r="T11">
+        <v>9.293306750498523</v>
+      </c>
+      <c r="U11">
+        <v>7.453414574967451</v>
+      </c>
+      <c r="V11">
+        <v>55.5</v>
       </c>
     </row>
     <row r="12">
@@ -949,28 +1194,49 @@
         <v>0.01882</v>
       </c>
       <c r="H12">
-        <v>0.9811800000000001</v>
+        <v>0.02007652458304323</v>
       </c>
       <c r="I12">
-        <v>0.02007652458304323</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>87525.25979931229</v>
       </c>
       <c r="L12">
-        <v>87525.25979931229</v>
+        <v>86701.64710460076</v>
       </c>
       <c r="M12">
-        <v>86701.64710460076</v>
+        <v>1403799.828005384</v>
       </c>
       <c r="N12">
-        <v>1403799.828005384</v>
+        <v>16.03879647114642</v>
       </c>
       <c r="O12">
-        <v>16.03879647114642</v>
+        <v>1740.667749485856</v>
+      </c>
+      <c r="P12">
+        <v>25750.5325152556</v>
+      </c>
+      <c r="Q12">
+        <v>60951.11458934516</v>
+      </c>
+      <c r="R12">
+        <v>637182.9343655256</v>
+      </c>
+      <c r="S12">
+        <v>766616.8936398581</v>
+      </c>
+      <c r="T12">
+        <v>8.758807404829682</v>
+      </c>
+      <c r="U12">
+        <v>7.27998906631674</v>
+      </c>
+      <c r="V12">
+        <v>54.6</v>
       </c>
     </row>
     <row r="13">
@@ -998,28 +1264,49 @@
         <v>0.01971</v>
       </c>
       <c r="H13">
-        <v>0.98029</v>
+        <v>0.02007652458304323</v>
       </c>
       <c r="I13">
-        <v>0.02007652458304323</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>85878.03440988924</v>
       </c>
       <c r="L13">
-        <v>85878.03440988924</v>
+        <v>85031.70638077978</v>
       </c>
       <c r="M13">
-        <v>85031.70638077978</v>
+        <v>1317098.180900783</v>
       </c>
       <c r="N13">
-        <v>1317098.180900783</v>
+        <v>15.33684591119511</v>
       </c>
       <c r="O13">
-        <v>15.33684591119511</v>
+        <v>1707.141143491839</v>
+      </c>
+      <c r="P13">
+        <v>26718.76587748471</v>
+      </c>
+      <c r="Q13">
+        <v>58312.94050329507</v>
+      </c>
+      <c r="R13">
+        <v>611432.40185027</v>
+      </c>
+      <c r="S13">
+        <v>705665.7790505129</v>
+      </c>
+      <c r="T13">
+        <v>8.217069520739431</v>
+      </c>
+      <c r="U13">
+        <v>7.119776390455681</v>
+      </c>
+      <c r="V13">
+        <v>53.6</v>
       </c>
     </row>
     <row r="14">
@@ -1047,28 +1334,49 @@
         <v>0.02184</v>
       </c>
       <c r="H14">
-        <v>0.97816</v>
+        <v>0.02007652458304323</v>
       </c>
       <c r="I14">
-        <v>0.02007652458304323</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>84185.37835167033</v>
       </c>
       <c r="L14">
-        <v>84185.37835167033</v>
+        <v>83266.07402007008</v>
       </c>
       <c r="M14">
-        <v>83266.07402007008</v>
+        <v>1232066.474520003</v>
       </c>
       <c r="N14">
-        <v>1232066.474520003</v>
+        <v>14.63515991308196</v>
       </c>
       <c r="O14">
-        <v>14.63515991308196</v>
+        <v>1671.693381997434</v>
+      </c>
+      <c r="P14">
+        <v>26644.98598699578</v>
+      </c>
+      <c r="Q14">
+        <v>56621.08803307429</v>
+      </c>
+      <c r="R14">
+        <v>584713.6359727853</v>
+      </c>
+      <c r="S14">
+        <v>647352.8385472179</v>
+      </c>
+      <c r="T14">
+        <v>7.689611322324998</v>
+      </c>
+      <c r="U14">
+        <v>6.945548590756959</v>
+      </c>
+      <c r="V14">
+        <v>52.5</v>
       </c>
     </row>
     <row r="15">
@@ -1096,28 +1404,49 @@
         <v>0.02247</v>
       </c>
       <c r="H15">
-        <v>0.97753</v>
+        <v>0.02007652458304323</v>
       </c>
       <c r="I15">
-        <v>0.02007652458304323</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.5</v>
+        <v>82346.76968846985</v>
       </c>
       <c r="L15">
-        <v>82346.76968846985</v>
+        <v>81421.60373101989</v>
       </c>
       <c r="M15">
-        <v>81421.60373101989</v>
+        <v>1148800.400499933</v>
       </c>
       <c r="N15">
-        <v>1148800.400499933</v>
+        <v>13.95076461221268</v>
       </c>
       <c r="O15">
-        <v>13.95076461221268</v>
+        <v>1634.662828896625</v>
+      </c>
+      <c r="P15">
+        <v>26366.01923791629</v>
+      </c>
+      <c r="Q15">
+        <v>55055.5844931036</v>
+      </c>
+      <c r="R15">
+        <v>558068.6499857894</v>
+      </c>
+      <c r="S15">
+        <v>590731.7505141435</v>
+      </c>
+      <c r="T15">
+        <v>7.173708850377132</v>
+      </c>
+      <c r="U15">
+        <v>6.777055761835547</v>
+      </c>
+      <c r="V15">
+        <v>51.4</v>
       </c>
     </row>
     <row r="16">
@@ -1145,28 +1474,49 @@
         <v>0.02567</v>
       </c>
       <c r="H16">
-        <v>0.97433</v>
+        <v>0.02007652458304323</v>
       </c>
       <c r="I16">
-        <v>0.02007652458304323</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>80496.43777356994</v>
       </c>
       <c r="L16">
-        <v>80496.43777356994</v>
+        <v>79463.26599474617</v>
       </c>
       <c r="M16">
-        <v>79463.26599474617</v>
+        <v>1067378.796768913</v>
       </c>
       <c r="N16">
-        <v>1067378.796768913</v>
+        <v>13.25995070454378</v>
       </c>
       <c r="O16">
-        <v>13.25995070454378</v>
+        <v>1595.346213192424</v>
+      </c>
+      <c r="P16">
+        <v>27763.36482248437</v>
+      </c>
+      <c r="Q16">
+        <v>51699.90117226179</v>
+      </c>
+      <c r="R16">
+        <v>531702.6307478732</v>
+      </c>
+      <c r="S16">
+        <v>535676.1660210399</v>
+      </c>
+      <c r="T16">
+        <v>6.654656787768103</v>
+      </c>
+      <c r="U16">
+        <v>6.605293916775675</v>
+      </c>
+      <c r="V16">
+        <v>50.2</v>
       </c>
     </row>
     <row r="17">
@@ -1194,28 +1544,49 @@
         <v>0.02793</v>
       </c>
       <c r="H17">
-        <v>0.97207</v>
+        <v>0.02811262484784377</v>
       </c>
       <c r="I17">
-        <v>0.02811262484784377</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>78430.09421592239</v>
       </c>
       <c r="L17">
-        <v>78430.09421592239</v>
+        <v>77334.81795019703</v>
       </c>
       <c r="M17">
-        <v>77334.81795019703</v>
+        <v>987915.5307741669</v>
       </c>
       <c r="N17">
-        <v>987915.5307741669</v>
+        <v>12.59612831847914</v>
       </c>
       <c r="O17">
-        <v>12.59612831847914</v>
+        <v>2174.084724710183</v>
+      </c>
+      <c r="P17">
+        <v>28581.60074835194</v>
+      </c>
+      <c r="Q17">
+        <v>48753.21720184509</v>
+      </c>
+      <c r="R17">
+        <v>503939.2659253888</v>
+      </c>
+      <c r="S17">
+        <v>483976.2648487781</v>
+      </c>
+      <c r="T17">
+        <v>6.170797953096482</v>
+      </c>
+      <c r="U17">
+        <v>6.425330365382656</v>
+      </c>
+      <c r="V17">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1243,28 +1614,49 @@
         <v>0.02987</v>
       </c>
       <c r="H18">
-        <v>0.97013</v>
+        <v>0.02811262484784377</v>
       </c>
       <c r="I18">
-        <v>0.02811262484784377</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.5</v>
+        <v>76239.54168447168</v>
       </c>
       <c r="L18">
-        <v>76239.54168447168</v>
+        <v>75100.90412941409</v>
       </c>
       <c r="M18">
-        <v>75100.90412941409</v>
+        <v>910580.7128239699</v>
       </c>
       <c r="N18">
-        <v>910580.7128239699</v>
+        <v>11.94368030952415</v>
       </c>
       <c r="O18">
-        <v>11.94368030952415</v>
+        <v>2111.283543524099</v>
+      </c>
+      <c r="P18">
+        <v>28631.9444124275</v>
+      </c>
+      <c r="Q18">
+        <v>46468.95971698659</v>
+      </c>
+      <c r="R18">
+        <v>475357.6651770368</v>
+      </c>
+      <c r="S18">
+        <v>435223.0476469331</v>
+      </c>
+      <c r="T18">
+        <v>5.708626232935218</v>
+      </c>
+      <c r="U18">
+        <v>6.23505407658893</v>
+      </c>
+      <c r="V18">
+        <v>47.8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,28 +1684,49 @@
         <v>0.03363</v>
       </c>
       <c r="H19">
-        <v>0.96637</v>
+        <v>0.02811262484784377</v>
       </c>
       <c r="I19">
-        <v>0.02811262484784377</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>73962.26657435652</v>
       </c>
       <c r="L19">
-        <v>73962.26657435652</v>
+        <v>72718.59106190871</v>
       </c>
       <c r="M19">
-        <v>72718.59106190871</v>
+        <v>835479.8086945559</v>
       </c>
       <c r="N19">
-        <v>835479.8086945559</v>
+        <v>11.29602765559683</v>
       </c>
       <c r="O19">
-        <v>11.29602765559683</v>
+        <v>2044.310469987204</v>
+      </c>
+      <c r="P19">
+        <v>29931.16033792451</v>
+      </c>
+      <c r="Q19">
+        <v>42787.43072398419</v>
+      </c>
+      <c r="R19">
+        <v>446725.7207646093</v>
+      </c>
+      <c r="S19">
+        <v>388754.0879299465</v>
+      </c>
+      <c r="T19">
+        <v>5.25611377173143</v>
+      </c>
+      <c r="U19">
+        <v>6.039913883865395</v>
+      </c>
+      <c r="V19">
+        <v>46.5</v>
       </c>
     </row>
     <row r="20">
@@ -1341,28 +1754,49 @@
         <v>0.03686</v>
       </c>
       <c r="H20">
-        <v>0.96314</v>
+        <v>0.02811262484784377</v>
       </c>
       <c r="I20">
-        <v>0.02811262484784377</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>71474.9155494609</v>
       </c>
       <c r="L20">
-        <v>71474.9155494609</v>
+        <v>70157.63285588434</v>
       </c>
       <c r="M20">
-        <v>70157.63285588434</v>
+        <v>762761.2176326471</v>
       </c>
       <c r="N20">
-        <v>762761.2176326471</v>
+        <v>10.6717330376531</v>
       </c>
       <c r="O20">
-        <v>10.6717330376531</v>
+        <v>1972.315212690234</v>
+      </c>
+      <c r="P20">
+        <v>30875.48705327187</v>
+      </c>
+      <c r="Q20">
+        <v>39282.14580261247</v>
+      </c>
+      <c r="R20">
+        <v>416794.5604266849</v>
+      </c>
+      <c r="S20">
+        <v>345966.6572059623</v>
+      </c>
+      <c r="T20">
+        <v>4.840392668481743</v>
+      </c>
+      <c r="U20">
+        <v>5.831340369171357</v>
+      </c>
+      <c r="V20">
+        <v>45.4</v>
       </c>
     </row>
     <row r="21">
@@ -1390,28 +1824,49 @@
         <v>0.04158</v>
       </c>
       <c r="H21">
-        <v>0.95842</v>
+        <v>0.02811262484784377</v>
       </c>
       <c r="I21">
-        <v>0.02811262484784377</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>68840.35016230778</v>
       </c>
       <c r="L21">
-        <v>68840.35016230778</v>
+        <v>67409.15928243339</v>
       </c>
       <c r="M21">
-        <v>67409.15928243339</v>
+        <v>692603.5847767628</v>
       </c>
       <c r="N21">
-        <v>692603.5847767628</v>
+        <v>10.06101193767583</v>
       </c>
       <c r="O21">
-        <v>10.06101193767583</v>
+        <v>1895.048406215595</v>
+      </c>
+      <c r="P21">
+        <v>29273.69827108379</v>
+      </c>
+      <c r="Q21">
+        <v>38135.4610113496</v>
+      </c>
+      <c r="R21">
+        <v>385919.0733734129</v>
+      </c>
+      <c r="S21">
+        <v>306684.5114033498</v>
+      </c>
+      <c r="T21">
+        <v>4.455010915549774</v>
+      </c>
+      <c r="U21">
+        <v>5.606001022126056</v>
+      </c>
+      <c r="V21">
+        <v>44.3</v>
       </c>
     </row>
     <row r="22">
@@ -1439,28 +1894,49 @@
         <v>0.04685</v>
       </c>
       <c r="H22">
-        <v>0.9531500000000001</v>
+        <v>0.04791816944562513</v>
       </c>
       <c r="I22">
-        <v>0.04791816944562513</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>65977.96840255902</v>
       </c>
       <c r="L22">
-        <v>65977.96840255902</v>
+        <v>64432.43449272908</v>
       </c>
       <c r="M22">
-        <v>64432.43449272908</v>
+        <v>625194.4254943294</v>
       </c>
       <c r="N22">
-        <v>625194.4254943294</v>
+        <v>9.475805949036779</v>
       </c>
       <c r="O22">
-        <v>9.475805949036779</v>
+        <v>3087.484313816733</v>
+      </c>
+      <c r="P22">
+        <v>30637.97231964179</v>
+      </c>
+      <c r="Q22">
+        <v>33794.46217308729</v>
+      </c>
+      <c r="R22">
+        <v>356645.3751023292</v>
+      </c>
+      <c r="S22">
+        <v>268549.0503920002</v>
+      </c>
+      <c r="T22">
+        <v>4.070283715822694</v>
+      </c>
+      <c r="U22">
+        <v>5.405522233214085</v>
+      </c>
+      <c r="V22">
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1488,28 +1964,49 @@
         <v>0.05282</v>
       </c>
       <c r="H23">
-        <v>0.94718</v>
+        <v>0.04791816944562513</v>
       </c>
       <c r="I23">
-        <v>0.04791816944562513</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>62886.90058289914</v>
       </c>
       <c r="L23">
-        <v>62886.90058289914</v>
+        <v>61226.05753850477</v>
       </c>
       <c r="M23">
-        <v>61226.05753850477</v>
+        <v>560761.9910016003</v>
       </c>
       <c r="N23">
-        <v>560761.9910016003</v>
+        <v>8.916992025428083</v>
       </c>
       <c r="O23">
-        <v>8.916992025428083</v>
+        <v>2933.840599617666</v>
+      </c>
+      <c r="P23">
+        <v>31440.77902007709</v>
+      </c>
+      <c r="Q23">
+        <v>29785.27851842768</v>
+      </c>
+      <c r="R23">
+        <v>326007.4027826874</v>
+      </c>
+      <c r="S23">
+        <v>234754.5882189129</v>
+      </c>
+      <c r="T23">
+        <v>3.732964831196496</v>
+      </c>
+      <c r="U23">
+        <v>5.184027194231588</v>
+      </c>
+      <c r="V23">
+        <v>41.9</v>
       </c>
     </row>
     <row r="24">
@@ -1537,28 +2034,49 @@
         <v>0.05991</v>
       </c>
       <c r="H24">
-        <v>0.94009</v>
+        <v>0.04791816944562513</v>
       </c>
       <c r="I24">
-        <v>0.04791816944562513</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>59565.21449411041</v>
       </c>
       <c r="L24">
-        <v>59565.21449411041</v>
+        <v>57780.93849393933</v>
       </c>
       <c r="M24">
-        <v>57780.93849393933</v>
+        <v>499535.9334630956</v>
       </c>
       <c r="N24">
-        <v>499535.9334630956</v>
+        <v>8.386370093781629</v>
       </c>
       <c r="O24">
-        <v>8.386370093781629</v>
+        <v>2768.756801479828</v>
+      </c>
+      <c r="P24">
+        <v>30962.98484210254</v>
+      </c>
+      <c r="Q24">
+        <v>26817.95365183679</v>
+      </c>
+      <c r="R24">
+        <v>294566.6237626103</v>
+      </c>
+      <c r="S24">
+        <v>204969.3097004853</v>
+      </c>
+      <c r="T24">
+        <v>3.441090768182357</v>
+      </c>
+      <c r="U24">
+        <v>4.945279325599272</v>
+      </c>
+      <c r="V24">
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -1586,28 +2104,49 @@
         <v>0.06675</v>
       </c>
       <c r="H25">
-        <v>0.93325</v>
+        <v>0.04791816944562513</v>
       </c>
       <c r="I25">
-        <v>0.04791816944562513</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>55996.66249376825</v>
       </c>
       <c r="L25">
-        <v>55996.66249376825</v>
+        <v>54127.77388303874</v>
       </c>
       <c r="M25">
-        <v>54127.77388303874</v>
+        <v>441754.9949691562</v>
       </c>
       <c r="N25">
-        <v>441754.9949691562</v>
+        <v>7.888952221363517</v>
       </c>
       <c r="O25">
-        <v>7.888952221363517</v>
+        <v>2593.703840641933</v>
+      </c>
+      <c r="P25">
+        <v>28662.06490528245</v>
+      </c>
+      <c r="Q25">
+        <v>25465.70897775629</v>
+      </c>
+      <c r="R25">
+        <v>263603.6389205077</v>
+      </c>
+      <c r="S25">
+        <v>178151.3560486485</v>
+      </c>
+      <c r="T25">
+        <v>3.181463825071263</v>
+      </c>
+      <c r="U25">
+        <v>4.707488396292255</v>
+      </c>
+      <c r="V25">
+        <v>40.3</v>
       </c>
     </row>
     <row r="26">
@@ -1635,28 +2174,49 @@
         <v>0.07591000000000001</v>
       </c>
       <c r="H26">
-        <v>0.92409</v>
+        <v>0.04791816944562513</v>
       </c>
       <c r="I26">
-        <v>0.04791816944562513</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>52258.88527230922</v>
       </c>
       <c r="L26">
-        <v>52258.88527230922</v>
+        <v>50275.39928179872</v>
       </c>
       <c r="M26">
-        <v>50275.39928179872</v>
+        <v>387627.2210861175</v>
       </c>
       <c r="N26">
-        <v>387627.2210861175</v>
+        <v>7.417441437303529</v>
       </c>
       <c r="O26">
-        <v>7.417441437303529</v>
+        <v>2409.105101731691</v>
+      </c>
+      <c r="P26">
+        <v>28624.95449306145</v>
+      </c>
+      <c r="Q26">
+        <v>21650.44478873727</v>
+      </c>
+      <c r="R26">
+        <v>234941.5740152253</v>
+      </c>
+      <c r="S26">
+        <v>152685.6470708922</v>
+      </c>
+      <c r="T26">
+        <v>2.921716494243646</v>
+      </c>
+      <c r="U26">
+        <v>4.495724943059882</v>
+      </c>
+      <c r="V26">
+        <v>39.4</v>
       </c>
     </row>
     <row r="27">
@@ -1684,28 +2244,49 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>0.0985485626245705</v>
       </c>
       <c r="I27">
-        <v>0.0985485626245705</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>48291.91329128823</v>
       </c>
       <c r="L27">
-        <v>48291.91329128823</v>
+        <v>337351.8218043188</v>
       </c>
       <c r="M27">
         <v>337351.8218043188</v>
       </c>
       <c r="N27">
-        <v>337351.8218043188</v>
+        <v>6.985679357317499</v>
       </c>
       <c r="O27">
-        <v>6.985679357317499</v>
+        <v>33245.53713759586</v>
+      </c>
+      <c r="P27">
+        <v>206316.6195221638</v>
+      </c>
+      <c r="Q27">
+        <v>131035.2022821549</v>
+      </c>
+      <c r="R27">
+        <v>206316.6195221638</v>
+      </c>
+      <c r="S27">
+        <v>131035.2022821549</v>
+      </c>
+      <c r="T27">
+        <v>2.713398441924922</v>
+      </c>
+      <c r="U27">
+        <v>4.272280915392577</v>
+      </c>
+      <c r="V27">
+        <v>38.8</v>
       </c>
     </row>
   </sheetData>
